--- a/data/regional_child_rearing_support_base/data.xlsx
+++ b/data/regional_child_rearing_support_base/data.xlsx
@@ -758,7 +758,7 @@
         <v>ハイジの森</v>
       </c>
       <c r="E10" t="str">
-        <v>高松市多肥上町1622-12</v>
+        <v>高松市多肥上町1555-2</v>
       </c>
       <c r="F10" t="str">
         <v>090-3786-7439</v>
@@ -989,10 +989,10 @@
         <v>高松市円座町西村１２９−１５</v>
       </c>
       <c r="F16" t="str">
-        <v>090-3994-4271</v>
+        <v>087-816-2288</v>
       </c>
       <c r="G16" t="str">
-        <v>https://www.smilestation-kagawa.com/%E5%86%86%E5%BA%A7%E5%AD%90%E8%82%B2%E3%81%A6%E6%94%AF%E6%8F%B4%E3%82%B9%E3%83%86%E3%83%BC%E3%82%B7%E3%83%A7%E3%83%B3%E3%82%B9%E3%83%9E%E3%81%AF%E3%81%B4</v>
+        <v>https://www.sho-ai-kai.com/sien</v>
       </c>
       <c r="H16" t="str">
         <v/>
